--- a/dat/inputs.xlsx
+++ b/dat/inputs.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18960" windowHeight="7740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="1" r:id="rId1"/>
     <sheet name="upper" sheetId="2" r:id="rId2"/>
+    <sheet name="lower_wh" sheetId="3" r:id="rId3"/>
+    <sheet name="upper_wh" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="48">
   <si>
     <t>maxAge</t>
   </si>
@@ -68,27 +70,15 @@
     <t>juv_ini_n</t>
   </si>
   <si>
-    <t>juv_ini_n_cv</t>
-  </si>
-  <si>
     <t>juv_ini_h</t>
   </si>
   <si>
-    <t>juv_ini_h_cv</t>
-  </si>
-  <si>
     <t>adults_ini_n</t>
   </si>
   <si>
-    <t>adults_ini_n_cv</t>
-  </si>
-  <si>
     <t>adults_ini_h</t>
   </si>
   <si>
-    <t>adults_ini_h_cv</t>
-  </si>
-  <si>
     <t>a_fec</t>
   </si>
   <si>
@@ -150,6 +140,27 @@
   </si>
   <si>
     <t>viableGam_rng</t>
+  </si>
+  <si>
+    <t>adults_ini_n_rng</t>
+  </si>
+  <si>
+    <t>adults_ini_h_rng</t>
+  </si>
+  <si>
+    <t>juv_ini_h_rng</t>
+  </si>
+  <si>
+    <t>juv_ini_n_rng</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Wildhaber PVA</t>
+  </si>
+  <si>
+    <t>1 for triag else for unif</t>
   </si>
 </sst>
 </file>
@@ -533,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,10 +564,10 @@
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,21 +575,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,12 +609,12 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>0.6</v>
@@ -629,12 +640,12 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>0.9</v>
@@ -663,7 +674,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
         <v>9.9999999999999995E-7</v>
@@ -697,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,7 +751,7 @@
         <v>0.5</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,7 +765,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -765,7 +776,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>4000</v>
@@ -774,7 +785,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
         <v>3750</v>
@@ -785,7 +796,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>500</v>
@@ -794,7 +805,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -805,7 +816,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <v>21500</v>
@@ -814,7 +825,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>18000</v>
@@ -825,29 +836,29 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1">
         <v>-43.677999999999997</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
         <v>72.7</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
@@ -855,101 +866,112 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>32</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -959,14 +981,1329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>500</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3750</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <v>500</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>21500</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-43.677999999999997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <f>7.419*10^-2</f>
+        <v>7.4189999999999992E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-2.6720000000000002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>500</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3750</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <v>500</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>21500</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-43.677999999999997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <f>7.419*10^-2</f>
+        <v>7.4189999999999992E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-2.6720000000000002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>500</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3750</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <v>500</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>21500</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-43.677999999999997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>72.7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dat/inputs.xlsx
+++ b/dat/inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18960" windowHeight="7740" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18960" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lower" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="49">
   <si>
     <t>maxAge</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>1 for triag else for unif</t>
+  </si>
+  <si>
+    <t>linear relationship; Wildhaber PVA</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,10 +1725,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="1">
-        <v>-43.677999999999997</v>
+        <v>-45224.639999999999</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,10 +1739,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>72.7</v>
+        <v>83.69</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,6 +2046,9 @@
       <c r="B16" s="1">
         <v>1194</v>
       </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2068,9 +2080,6 @@
       <c r="B19" s="1">
         <v>0.5</v>
       </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2168,10 +2177,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="1">
-        <v>-43.677999999999997</v>
+        <v>-45224.639999999999</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,10 +2191,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>72.7</v>
+        <v>83.69</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
